--- a/Documentation/Project/Database.xlsx
+++ b/Documentation/Project/Database.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/20069271/OneDrive - TAFE/NFS/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tafewa-my.sharepoint.com/personal/j162548_tafe_wa_edu_au/Documents/NFS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1FB17-7DA2-0F47-A573-1B3679CB16B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{DE18F2E7-05B7-457F-874A-3150C5D7AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF14D82D-A276-4B73-B8EA-78F25576312C}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="680" windowWidth="20720" windowHeight="22340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="997" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Database</t>
   </si>
@@ -196,6 +205,108 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>order status</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>customer id</t>
+  </si>
+  <si>
+    <t>orderstatus</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>orderShipped</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>PackedDate</t>
+  </si>
+  <si>
+    <t>PackerID</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>LinkTable</t>
+  </si>
+  <si>
+    <t>packerId</t>
+  </si>
+  <si>
+    <t>packageQty</t>
+  </si>
+  <si>
+    <t>storageNotes</t>
+  </si>
+  <si>
+    <t>prepNotes</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>StatusId</t>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>DriverID</t>
+  </si>
+  <si>
+    <t>Packer</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>LocationID</t>
+  </si>
+  <si>
+    <t>LocatioName</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>OrderContents</t>
+  </si>
+  <si>
+    <t>locationID</t>
   </si>
 </sst>
 </file>
@@ -580,30 +691,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H29" activeCellId="1" sqref="I19 H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="18.1328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.06640625" style="1"/>
     <col min="4" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="17.3984375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,19 +723,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -636,11 +748,11 @@
       <c r="G5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,11 +765,11 @@
       <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,8 +782,11 @@
       <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,8 +799,17 @@
       <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,8 +822,17 @@
       <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,13 +842,25 @@
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -725,8 +870,14 @@
       <c r="G12" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
@@ -736,8 +887,14 @@
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -745,28 +902,64 @@
       <c r="G14" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
       <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
@@ -776,8 +969,17 @@
       <c r="G18" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
@@ -787,8 +989,11 @@
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
@@ -798,8 +1003,11 @@
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
@@ -809,11 +1017,9 @@
       <c r="G21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
@@ -821,20 +1027,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G23" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
@@ -844,8 +1056,11 @@
       <c r="G25" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
@@ -855,8 +1070,11 @@
       <c r="G26" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
@@ -866,21 +1084,33 @@
       <c r="G27" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G28" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G29" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
@@ -888,7 +1118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
@@ -899,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
@@ -910,21 +1140,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G34" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G37" s="10" t="s">
         <v>52</v>
       </c>
@@ -932,53 +1159,50 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G39" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G40" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G43" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G44" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G45" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.45">
       <c r="G46" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G47" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Project/Database.xlsx
+++ b/Documentation/Project/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tafewa-my.sharepoint.com/personal/j162548_tafe_wa_edu_au/Documents/NFS/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William  Te\Desktop\NavyFood\NavyFoodSecurity\Documentation\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{DE18F2E7-05B7-457F-874A-3150C5D7AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF14D82D-A276-4B73-B8EA-78F25576312C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75793D7C-8913-4EC7-B81C-087681D68CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="997" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="997" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Database</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>locationID</t>
+  </si>
+  <si>
+    <t>DriverId</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H29" activeCellId="1" sqref="I19 H29"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -989,6 +992,9 @@
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>88</v>
       </c>
